--- a/biology/Zoologie/Atelopus_chocoensis/Atelopus_chocoensis.xlsx
+++ b/biology/Zoologie/Atelopus_chocoensis/Atelopus_chocoensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atelopus chocoensis est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atelopus chocoensis est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Colombie[1],[2]. Elle se rencontre dans les départements de Chocó et de Valle del Cauca sur le Cerro del Ingles dans la serranía de los Paraguas, entre 1 900 et 2 200 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Colombie,. Elle se rencontre dans les départements de Chocó et de Valle del Cauca sur le Cerro del Ingles dans la serranía de los Paraguas, entre 1 900 et 2 200 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de choco et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le département de Chocó.
 </t>
